--- a/gsem/gsem_output/disorder_cfa/cfa_DWLS_results.xlsx
+++ b/gsem/gsem_output/disorder_cfa/cfa_DWLS_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -119,16 +119,10 @@
     <t xml:space="preserve">neg_resid_std</t>
   </si>
   <si>
-    <t xml:space="preserve">PTSD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anthropometric</t>
   </si>
   <si>
     <t xml:space="preserve">loading_gt_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internalizing</t>
   </si>
   <si>
     <t xml:space="preserve">==== SESSION INFO ====
@@ -145,26 +139,20 @@
 attached base packages:
 [1] stats     graphics  grDevices utils     datasets  methods   base     
 other attached packages:
- [1] lavaan_0.6-19     rsvg_2.6.2        DiagrammeRsvg_0.1 DiagrammeR_1.0.11 GenomicSEM_0.0.5  mgsub_1.7.3      
- [7] gdata_3.0.1       data.table_1.17.0 devtools_2.4.5    usethis_3.1.0     tibble_3.2.1      dplyr_1.1.4      
-[13] ggplot2_3.5.2     reshape2_1.4.4   
+[1] lavaan_0.6-19     data.table_1.17.0 dplyr_1.1.4       GenomicSEM_0.0.5 
 loaded via a namespace (and not attached):
- [1] tidyselect_1.2.1      farver_2.1.2          R.utils_2.13.0        fastmap_1.2.0         promises_1.3.2       
- [6] digest_0.6.37         mime_0.13             lifecycle_1.0.4       ellipsis_0.3.2        magrittr_2.0.3       
-[11] compiler_4.5.0        rlang_1.1.6           tools_4.5.0           labeling_0.4.3        htmlwidgets_1.6.4    
-[16] pkgbuild_1.4.7        mnormt_2.1.1          curl_6.2.2            splitstackshape_1.4.8 plyr_1.8.9           
-[21] RColorBrewer_1.1-3    pkgload_1.4.0         miniUI_0.1.1.1        withr_3.0.2           purrr_1.0.4          
-[26] R.oo_1.27.0           grid_4.5.0            stats4_4.5.0          urlchecker_1.0.1      profvis_0.4.0        
-[31] xtable_1.8-4          e1071_1.7-16          MASS_7.3-65           scales_1.4.0          gtools_3.9.5         
-[36] iterators_1.0.14      cli_3.6.5             ragg_1.4.0            generics_0.1.3        remotes_2.5.0        
-[41] rstudioapi_0.17.1     tzdb_0.5.0            sessioninfo_1.2.3     visNetwork_2.1.2      cachem_1.1.0         
-[46] proxy_0.4-27          stringr_1.5.1         parallel_4.5.0        vctrs_0.6.5           V8_6.0.3             
-[51] Matrix_1.7-3          jsonlite_2.0.0        hms_1.1.3             systemfonts_1.2.2     embarktools_0.1.0    
-[56] foreach_1.5.2         glue_1.8.0            codetools_0.2-20      stringi_1.8.7         gtable_0.3.6         
-[61] later_1.4.2           quadprog_1.5-8        pillar_1.10.2         htmltools_0.5.8.1     R6_2.6.1             
-[66] textshaping_1.0.0     doParallel_1.0.17     shiny_1.10.0          pbivnorm_0.6.0        lattice_0.22-6       
-[71] readr_2.1.5           R.methodsS3_1.8.2     memoise_2.0.1         httpuv_1.6.16         class_7.3-23         
-[76] Rcpp_1.0.14           fs_1.6.6              pkgconfig_2.0.3      
+ [1] Matrix_1.7-3          compiler_4.5.0        gtools_3.9.5          tidyselect_1.2.1     
+ [5] Rcpp_1.0.14           stringr_1.5.1         parallel_4.5.0        lattice_0.22-6       
+ [9] pbivnorm_0.6.0        readr_2.1.5           R6_2.6.1              plyr_1.8.9           
+[13] generics_0.1.3        MASS_7.3-65           iterators_1.0.14      tibble_3.2.1         
+[17] pillar_1.10.2         tzdb_0.5.0            R.utils_2.13.0        rlang_1.1.6          
+[21] splitstackshape_1.4.8 stringi_1.8.7         quadprog_1.5-8        doParallel_1.0.17    
+[25] cli_3.6.5             withr_3.0.2           magrittr_2.0.3        class_7.3-23         
+[29] foreach_1.5.2         grid_4.5.0            rstudioapi_0.17.1     gdata_3.0.1          
+[33] hms_1.1.3             lifecycle_1.0.4       mgsub_1.7.3           R.oo_1.27.0          
+[37] R.methodsS3_1.8.2     vctrs_0.6.5           mnormt_2.1.1          proxy_0.4-27         
+[41] glue_1.8.0            codetools_0.2-20      stats4_4.5.0          e1071_1.7-16         
+[45] tools_4.5.0           pkgconfig_2.0.3      
 ==== OBS TRAITS ====
 FFM, Insulin, AN, ANX, BMI, MDD, OCD, PTSD, BMI_Childhood, BFP, Age_Menarche, Tanner_StageMidAdol, BE_noAN
 ==== LDSC SHAPES ====
@@ -535,22 +523,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>321.3527</v>
+        <v>381.3861</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>377.3527</v>
+        <v>441.3861</v>
       </c>
       <c r="F2" t="n">
-        <v>0.99</v>
+        <v>0.9888</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0678</v>
+        <v>0.0756</v>
       </c>
       <c r="H2"/>
     </row>
@@ -559,22 +547,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>348.3038</v>
+        <v>393.9008</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>398.3038</v>
+        <v>447.9008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9891</v>
+        <v>0.9885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0726</v>
+        <v>0.077</v>
       </c>
       <c r="H3"/>
     </row>
@@ -583,22 +571,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>636.2636</v>
+        <v>693.7798</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>688.2636</v>
+        <v>749.7798</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9793</v>
+        <v>0.9787</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0693</v>
+        <v>0.0751</v>
       </c>
       <c r="H4"/>
     </row>
@@ -607,22 +595,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>651.4279</v>
+        <v>688.6784</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>697.4279</v>
+        <v>738.6784</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9789</v>
+        <v>0.979</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0744</v>
+        <v>0.0766</v>
       </c>
       <c r="H5"/>
     </row>
@@ -631,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>26.9512</v>
+        <v>12.5147</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -640,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20.9512</v>
+        <v>6.5147</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0008</v>
+        <v>-0.0003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0048</v>
+        <v>0.0015</v>
       </c>
       <c r="H6"/>
     </row>
@@ -655,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1643</v>
+        <v>-5.1015</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -664,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.1643</v>
+        <v>-11.1015</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0051</v>
+        <v>0.0014</v>
       </c>
       <c r="H7"/>
     </row>
@@ -737,21 +725,21 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>-0.124988</v>
+        <v>-0.124302</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.060654</v>
+        <v>1.060332</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
@@ -760,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.596701</v>
+        <v>0.604267</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
@@ -774,21 +762,21 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>-0.134721</v>
+        <v>-0.133765</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.065233</v>
+        <v>1.064784</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
@@ -797,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.641392</v>
+        <v>0.641616</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -822,10 +810,10 @@
         <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.011411</v>
+        <v>1.011308</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -834,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.609929</v>
+        <v>0.620809</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -859,10 +847,10 @@
         <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.01247</v>
+        <v>1.012319</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
@@ -871,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.650113</v>
+        <v>0.65073</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
@@ -913,7 +901,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.124988138075901</v>
+        <v>-0.124302392031608</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -928,63 +916,65 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0444274540161231</v>
+        <v>1.06033156327515</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3"/>
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>1.06065449738968</v>
+        <v>-0.133764780343641</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>1.02197245134881</v>
+        <v>1.06478366398255</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.01130786806395</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.134720739292808</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6"/>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -992,115 +982,15 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0668647944287422</v>
+        <v>1.01231867560961</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7"/>
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.06523290087097</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.03289142052996</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.01141127952245</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.00191081045089</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.01246987290583</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.00438209436656</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1120,7 +1010,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
